--- a/files/full_list/list.xlsx
+++ b/files/full_list/list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\varis_info\files\full_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15DBE2-B659-44AA-BAE7-8484749EB06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6A6469-636C-481F-AED6-88CD0D42EA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{6484AA1A-90D5-4ABE-B370-CE1B96A4FDF8}"/>
+    <workbookView xWindow="5775" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{6484AA1A-90D5-4ABE-B370-CE1B96A4FDF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>asd</t>
   </si>
@@ -63,46 +63,31 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>6067</t>
-  </si>
-  <si>
     <t>6067-1-1</t>
   </si>
   <si>
-    <t>sda</t>
-  </si>
-  <si>
-    <t>fafas</t>
-  </si>
-  <si>
-    <t>faasf</t>
-  </si>
-  <si>
-    <t>efefass</t>
-  </si>
-  <si>
-    <t>dsgs</t>
-  </si>
-  <si>
     <t>fsdgsf</t>
   </si>
   <si>
-    <t>sfgsdg</t>
-  </si>
-  <si>
     <t>sdfgsdg</t>
   </si>
   <si>
-    <t>gs</t>
-  </si>
-  <si>
-    <t>sgdsdgs</t>
-  </si>
-  <si>
     <t>sg</t>
   </si>
   <si>
     <t>gsg</t>
+  </si>
+  <si>
+    <t>Vater</t>
+  </si>
+  <si>
+    <t>Mutter</t>
+  </si>
+  <si>
+    <t>6069</t>
+  </si>
+  <si>
+    <t>6070</t>
   </si>
 </sst>
 </file>
@@ -458,7 +443,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -569,62 +554,42 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
